--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final1/500random/500_random.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final1/500random/500_random.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Final\500random\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(Finished)\Final1\500random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AA2D1B-4725-4312-AE4D-843BE0902A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D7AB13-4191-4BC2-B135-ACDAC5BE3E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="综合图" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1552,13 +1552,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44:W53"/>
+    <sheetView tabSelected="1" topLeftCell="G37" workbookViewId="0">
+      <selection activeCell="W56" sqref="W56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1584,12 +1584,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -1637,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="R2">
-        <v>18590</v>
+        <v>14452</v>
       </c>
       <c r="S2" t="s">
         <v>7</v>
@@ -1647,15 +1647,15 @@
       </c>
       <c r="U2">
         <f>R2-H2</f>
-        <v>16614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>471</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1673,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>20598</v>
+        <v>16400</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -1685,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>471</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
@@ -1703,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="R3">
-        <v>30767</v>
+        <v>27505</v>
       </c>
       <c r="S3" t="s">
         <v>7</v>
@@ -1713,15 +1713,15 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0">R3-H3</f>
-        <v>10169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>385</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <v>32763</v>
+        <v>29493</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>385</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
@@ -1769,7 +1769,7 @@
         <v>6</v>
       </c>
       <c r="R4">
-        <v>47141</v>
+        <v>41199</v>
       </c>
       <c r="S4" t="s">
         <v>7</v>
@@ -1779,15 +1779,15 @@
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>14378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1805,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>49135</v>
+        <v>43191</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1817,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
@@ -1835,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="R5">
-        <v>57713</v>
+        <v>56654</v>
       </c>
       <c r="S5" t="s">
         <v>7</v>
@@ -1845,15 +1845,15 @@
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>8578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1871,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>59711</v>
+        <v>58588</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1883,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="M6" t="s">
         <v>17</v>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="R6">
-        <v>69966</v>
+        <v>68499</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
@@ -1911,15 +1911,15 @@
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>10255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>450</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>71974</v>
+        <v>70479</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -1949,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>450</v>
+        <v>245</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
@@ -1967,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>80139</v>
+        <v>85978</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
@@ -1977,15 +1977,15 @@
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>8165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>15499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <v>82141</v>
+        <v>87977</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="M8" t="s">
         <v>17</v>
@@ -2033,7 +2033,7 @@
         <v>6</v>
       </c>
       <c r="R8">
-        <v>93421</v>
+        <v>101023</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -2043,15 +2043,15 @@
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>11280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2069,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="H9">
-        <v>95403</v>
+        <v>103026</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="R9">
-        <v>106219</v>
+        <v>111610</v>
       </c>
       <c r="S9" t="s">
         <v>7</v>
@@ -2109,15 +2109,15 @@
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>10816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>108175</v>
+        <v>113603</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
@@ -2165,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="R10">
-        <v>118016</v>
+        <v>122478</v>
       </c>
       <c r="S10" t="s">
         <v>7</v>
@@ -2175,21 +2175,21 @@
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>9841</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>339</v>
+        <v>441</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -2201,25 +2201,25 @@
         <v>4</v>
       </c>
       <c r="H11">
-        <v>120000</v>
+        <v>122479</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
       </c>
       <c r="J11">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>339</v>
+        <v>441</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
         <v>3</v>
@@ -2231,20 +2231,20 @@
         <v>6</v>
       </c>
       <c r="R11">
-        <v>133153</v>
+        <v>131755</v>
       </c>
       <c r="S11" t="s">
         <v>7</v>
       </c>
       <c r="T11">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>13153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2272,19 +2272,19 @@
       <c r="R12" s="2"/>
       <c r="T12">
         <f>AVERAGE(T2:T11)</f>
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="U12" s="2">
         <f>AVERAGE(U2:U11)</f>
-        <v>11324.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>1966</v>
+        <v>2012</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
         <v>17</v>
@@ -2332,7 +2332,7 @@
         <v>6</v>
       </c>
       <c r="R13">
-        <v>12335</v>
+        <v>17839</v>
       </c>
       <c r="S13" t="s">
         <v>7</v>
@@ -2342,15 +2342,15 @@
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>10369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>15827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -2368,7 +2368,7 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>14335</v>
+        <v>19842</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2380,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="M14" t="s">
         <v>17</v>
@@ -2398,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="R14">
-        <v>23979</v>
+        <v>30867</v>
       </c>
       <c r="S14" t="s">
         <v>7</v>
@@ -2408,15 +2408,15 @@
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>9644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>456</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -2434,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>25976</v>
+        <v>32870</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2446,7 +2446,7 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>456</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s">
         <v>17</v>
@@ -2464,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="R15">
-        <v>37865</v>
+        <v>44758</v>
       </c>
       <c r="S15" t="s">
         <v>7</v>
@@ -2474,15 +2474,15 @@
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>11889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>467</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="H16">
-        <v>39865</v>
+        <v>46760</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>467</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s">
         <v>17</v>
@@ -2530,7 +2530,7 @@
         <v>6</v>
       </c>
       <c r="R16">
-        <v>50379</v>
+        <v>59460</v>
       </c>
       <c r="S16" t="s">
         <v>7</v>
@@ -2540,15 +2540,15 @@
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>10514</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -2566,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="H17">
-        <v>52337</v>
+        <v>61455</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2578,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s">
         <v>17</v>
@@ -2596,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="R17">
-        <v>63431</v>
+        <v>71776</v>
       </c>
       <c r="S17" t="s">
         <v>7</v>
@@ -2606,15 +2606,15 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>11094</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>312</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -2632,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>65431</v>
+        <v>73774</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2644,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <v>312</v>
+        <v>245</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
@@ -2662,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="R18">
-        <v>74760</v>
+        <v>85803</v>
       </c>
       <c r="S18" t="s">
         <v>7</v>
@@ -2672,15 +2672,15 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>9329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>429</v>
+        <v>294</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="H19">
-        <v>76768</v>
+        <v>87793</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2710,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>429</v>
+        <v>294</v>
       </c>
       <c r="M19" t="s">
         <v>17</v>
@@ -2728,7 +2728,7 @@
         <v>6</v>
       </c>
       <c r="R19">
-        <v>91312</v>
+        <v>99351</v>
       </c>
       <c r="S19" t="s">
         <v>7</v>
@@ -2738,15 +2738,15 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>14544</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20">
-        <v>36</v>
+        <v>343</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -2764,7 +2764,7 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>93311</v>
+        <v>101346</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2776,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>343</v>
       </c>
       <c r="M20" t="s">
         <v>17</v>
@@ -2794,7 +2794,7 @@
         <v>6</v>
       </c>
       <c r="R20">
-        <v>104866</v>
+        <v>118140</v>
       </c>
       <c r="S20" t="s">
         <v>7</v>
@@ -2804,15 +2804,15 @@
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
-        <v>11555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>16794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -2830,7 +2830,7 @@
         <v>4</v>
       </c>
       <c r="H21">
-        <v>106872</v>
+        <v>120103</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2842,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="M21" t="s">
         <v>17</v>
@@ -2860,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="R21">
-        <v>116707</v>
+        <v>130444</v>
       </c>
       <c r="S21" t="s">
         <v>7</v>
@@ -2870,21 +2870,21 @@
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
-        <v>9835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22">
-        <v>238</v>
+        <v>441</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
@@ -2896,25 +2896,25 @@
         <v>4</v>
       </c>
       <c r="H22">
-        <v>118707</v>
+        <v>130445</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
       </c>
       <c r="J22">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>238</v>
+        <v>441</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="s">
         <v>3</v>
@@ -2926,20 +2926,20 @@
         <v>6</v>
       </c>
       <c r="R22">
-        <v>128563</v>
+        <v>141314</v>
       </c>
       <c r="S22" t="s">
         <v>7</v>
       </c>
       <c r="T22">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>9856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2967,19 +2967,19 @@
       <c r="R23" s="2"/>
       <c r="T23">
         <f>AVERAGE(T13:T22)</f>
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="U23" s="2">
         <f>AVERAGE(U13:U22)</f>
-        <v>10862.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12335.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -2997,7 +2997,7 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>1984</v>
+        <v>1957</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -3009,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="M24" t="s">
         <v>17</v>
@@ -3027,7 +3027,7 @@
         <v>6</v>
       </c>
       <c r="R24">
-        <v>11249</v>
+        <v>9362</v>
       </c>
       <c r="S24" t="s">
         <v>7</v>
@@ -3037,21 +3037,21 @@
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>9265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
@@ -3063,25 +3063,25 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>13243</v>
+        <v>9363</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
       </c>
       <c r="J25">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="M25" t="s">
         <v>17</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
         <v>3</v>
@@ -3093,25 +3093,25 @@
         <v>6</v>
       </c>
       <c r="R25">
-        <v>22647</v>
+        <v>27813</v>
       </c>
       <c r="S25" t="s">
         <v>7</v>
       </c>
       <c r="T25">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
-        <v>9404</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>351</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -3129,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="H26">
-        <v>24654</v>
+        <v>29818</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3141,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>351</v>
+        <v>98</v>
       </c>
       <c r="M26" t="s">
         <v>17</v>
@@ -3159,7 +3159,7 @@
         <v>6</v>
       </c>
       <c r="R26">
-        <v>33496</v>
+        <v>43663</v>
       </c>
       <c r="S26" t="s">
         <v>7</v>
@@ -3169,15 +3169,15 @@
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>8842</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
-        <v>450</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -3195,7 +3195,7 @@
         <v>4</v>
       </c>
       <c r="H27">
-        <v>35492</v>
+        <v>45656</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3207,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>450</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s">
         <v>17</v>
@@ -3225,7 +3225,7 @@
         <v>6</v>
       </c>
       <c r="R27">
-        <v>46365</v>
+        <v>56760</v>
       </c>
       <c r="S27" t="s">
         <v>7</v>
@@ -3235,15 +3235,15 @@
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>10873</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28">
-        <v>357</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -3261,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="H28">
-        <v>48366</v>
+        <v>58735</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3273,7 +3273,7 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>357</v>
+        <v>196</v>
       </c>
       <c r="M28" t="s">
         <v>17</v>
@@ -3291,7 +3291,7 @@
         <v>6</v>
       </c>
       <c r="R28">
-        <v>57680</v>
+        <v>71184</v>
       </c>
       <c r="S28" t="s">
         <v>7</v>
@@ -3301,15 +3301,15 @@
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>9314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -3327,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="H29">
-        <v>59682</v>
+        <v>73183</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s">
         <v>17</v>
@@ -3357,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="R29">
-        <v>70285</v>
+        <v>83609</v>
       </c>
       <c r="S29" t="s">
         <v>7</v>
@@ -3367,15 +3367,15 @@
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>10603</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -3393,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>72227</v>
+        <v>85576</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3405,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s">
         <v>17</v>
@@ -3423,7 +3423,7 @@
         <v>6</v>
       </c>
       <c r="R30">
-        <v>83661</v>
+        <v>96458</v>
       </c>
       <c r="S30" t="s">
         <v>7</v>
@@ -3433,21 +3433,21 @@
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>11434</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
@@ -3459,25 +3459,25 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <v>85665</v>
+        <v>96459</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
       </c>
       <c r="J31">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="M31" t="s">
         <v>17</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="s">
         <v>3</v>
@@ -3489,25 +3489,25 @@
         <v>6</v>
       </c>
       <c r="R31">
-        <v>99283</v>
+        <v>110573</v>
       </c>
       <c r="S31" t="s">
         <v>7</v>
       </c>
       <c r="T31">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>13618</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>14114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32">
-        <v>203</v>
+        <v>392</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -3525,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="H32">
-        <v>101264</v>
+        <v>112568</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3537,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>203</v>
+        <v>392</v>
       </c>
       <c r="M32" t="s">
         <v>17</v>
@@ -3555,7 +3555,7 @@
         <v>6</v>
       </c>
       <c r="R32">
-        <v>112727</v>
+        <v>121624</v>
       </c>
       <c r="S32" t="s">
         <v>7</v>
@@ -3565,15 +3565,15 @@
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
-        <v>11463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>9056</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>299</v>
+        <v>441</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -3591,7 +3591,7 @@
         <v>4</v>
       </c>
       <c r="H33">
-        <v>114728</v>
+        <v>123635</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3603,7 +3603,7 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>299</v>
+        <v>441</v>
       </c>
       <c r="M33" t="s">
         <v>17</v>
@@ -3621,7 +3621,7 @@
         <v>6</v>
       </c>
       <c r="R33">
-        <v>125992</v>
+        <v>139525</v>
       </c>
       <c r="S33" t="s">
         <v>7</v>
@@ -3631,10 +3631,10 @@
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
-        <v>11264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15890</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3662,19 +3662,19 @@
       <c r="R34" s="2"/>
       <c r="T34">
         <f>AVERAGE(T24:T33)</f>
-        <v>2047</v>
+        <v>1637.6</v>
       </c>
       <c r="U34" s="2">
         <f>AVERAGE(U24:U33)</f>
-        <v>10608</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>12362.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
       <c r="B35">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -3692,7 +3692,7 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>1904</v>
+        <v>1975</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3704,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="L35">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M35" t="s">
         <v>17</v>
@@ -3722,7 +3722,7 @@
         <v>6</v>
       </c>
       <c r="R35">
-        <v>13189</v>
+        <v>14977</v>
       </c>
       <c r="S35" t="s">
         <v>7</v>
@@ -3732,15 +3732,15 @@
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
-        <v>11285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -3758,7 +3758,7 @@
         <v>4</v>
       </c>
       <c r="H36">
-        <v>15182</v>
+        <v>16985</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
@@ -3770,7 +3770,7 @@
         <v>2</v>
       </c>
       <c r="L36">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="M36" t="s">
         <v>17</v>
@@ -3788,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="R36">
-        <v>29697</v>
+        <v>30508</v>
       </c>
       <c r="S36" t="s">
         <v>7</v>
@@ -3798,15 +3798,15 @@
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
-        <v>14515</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -3824,7 +3824,7 @@
         <v>4</v>
       </c>
       <c r="H37">
-        <v>31696</v>
+        <v>32491</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3836,7 +3836,7 @@
         <v>2</v>
       </c>
       <c r="L37">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="M37" t="s">
         <v>17</v>
@@ -3854,7 +3854,7 @@
         <v>6</v>
       </c>
       <c r="R37">
-        <v>45023</v>
+        <v>46363</v>
       </c>
       <c r="S37" t="s">
         <v>7</v>
@@ -3864,15 +3864,15 @@
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
-        <v>13327</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13872</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -3890,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="H38">
-        <v>47021</v>
+        <v>48367</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -3902,7 +3902,7 @@
         <v>2</v>
       </c>
       <c r="L38">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="M38" t="s">
         <v>17</v>
@@ -3920,7 +3920,7 @@
         <v>6</v>
       </c>
       <c r="R38">
-        <v>58443</v>
+        <v>59629</v>
       </c>
       <c r="S38" t="s">
         <v>7</v>
@@ -3930,15 +3930,15 @@
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
-        <v>11422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -3956,7 +3956,7 @@
         <v>4</v>
       </c>
       <c r="H39">
-        <v>58444</v>
+        <v>59630</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -3968,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="L39">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="M39" t="s">
         <v>17</v>
@@ -3986,7 +3986,7 @@
         <v>6</v>
       </c>
       <c r="R39">
-        <v>70016</v>
+        <v>71206</v>
       </c>
       <c r="S39" t="s">
         <v>7</v>
@@ -3996,15 +3996,15 @@
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
-        <v>11572</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -4022,7 +4022,7 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>72018</v>
+        <v>73213</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="L40">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="M40" t="s">
         <v>17</v>
@@ -4052,7 +4052,7 @@
         <v>6</v>
       </c>
       <c r="R40">
-        <v>81164</v>
+        <v>85642</v>
       </c>
       <c r="S40" t="s">
         <v>7</v>
@@ -4062,15 +4062,15 @@
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
-        <v>9146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+        <v>12429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41">
-        <v>399</v>
+        <v>294</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -4088,7 +4088,7 @@
         <v>4</v>
       </c>
       <c r="H41">
-        <v>83152</v>
+        <v>87644</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4100,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>399</v>
+        <v>294</v>
       </c>
       <c r="M41" t="s">
         <v>17</v>
@@ -4118,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="R41">
-        <v>94673</v>
+        <v>98514</v>
       </c>
       <c r="S41" t="s">
         <v>7</v>
@@ -4128,15 +4128,15 @@
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
-        <v>11521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+        <v>10870</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42">
-        <v>195</v>
+        <v>343</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -4154,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="H42">
-        <v>96664</v>
+        <v>100523</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4166,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="L42">
-        <v>195</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s">
         <v>17</v>
@@ -4184,7 +4184,7 @@
         <v>6</v>
       </c>
       <c r="R42">
-        <v>111100</v>
+        <v>112331</v>
       </c>
       <c r="S42" t="s">
         <v>7</v>
@@ -4194,15 +4194,15 @@
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
-        <v>14436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11808</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
       <c r="B43">
-        <v>108</v>
+        <v>392</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -4220,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="H43">
-        <v>113063</v>
+        <v>114338</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4232,7 +4232,7 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <v>108</v>
+        <v>392</v>
       </c>
       <c r="M43" t="s">
         <v>17</v>
@@ -4250,7 +4250,7 @@
         <v>6</v>
       </c>
       <c r="R43">
-        <v>124981</v>
+        <v>124448</v>
       </c>
       <c r="S43" t="s">
         <v>7</v>
@@ -4260,21 +4260,21 @@
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
-        <v>11918</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
@@ -4286,25 +4286,25 @@
         <v>4</v>
       </c>
       <c r="H44">
-        <v>126986</v>
+        <v>124449</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
       </c>
       <c r="J44">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
         <v>2</v>
       </c>
       <c r="L44">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M44" t="s">
         <v>17</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>3</v>
@@ -4316,28 +4316,28 @@
         <v>6</v>
       </c>
       <c r="R44">
-        <v>135711</v>
+        <v>138971</v>
       </c>
       <c r="S44" t="s">
         <v>7</v>
       </c>
       <c r="T44">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
-        <v>8725</v>
+        <v>14522</v>
       </c>
       <c r="V44">
         <f>U12</f>
-        <v>11324.9</v>
+        <v>11395</v>
       </c>
       <c r="W44">
         <f>T12</f>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1842.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -4365,27 +4365,27 @@
       <c r="R45" s="2"/>
       <c r="T45">
         <f>AVERAGE(T35:T44)</f>
-        <v>1842.3</v>
+        <v>1637.6</v>
       </c>
       <c r="U45" s="2">
         <f>AVERAGE(U35:U44)</f>
-        <v>11786.7</v>
+        <v>12297.4</v>
       </c>
       <c r="V45">
         <f>U23</f>
-        <v>10862.9</v>
+        <v>12335.2</v>
       </c>
       <c r="W45">
         <f>T23</f>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1842.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -4403,7 +4403,7 @@
         <v>4</v>
       </c>
       <c r="H46">
-        <v>1944</v>
+        <v>1959</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4415,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="L46">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="M46" t="s">
         <v>17</v>
@@ -4433,7 +4433,7 @@
         <v>6</v>
       </c>
       <c r="R46">
-        <v>13982</v>
+        <v>14282</v>
       </c>
       <c r="S46" t="s">
         <v>7</v>
@@ -4443,29 +4443,29 @@
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
-        <v>12038</v>
+        <v>12323</v>
       </c>
       <c r="V46">
         <f>U34</f>
-        <v>10608</v>
+        <v>12362.1</v>
       </c>
       <c r="W46">
         <f>T34</f>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1637.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47">
-        <v>483</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
@@ -4477,25 +4477,25 @@
         <v>4</v>
       </c>
       <c r="H47">
-        <v>15979</v>
+        <v>14283</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
       </c>
       <c r="J47">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K47" t="s">
         <v>2</v>
       </c>
       <c r="L47">
-        <v>483</v>
+        <v>49</v>
       </c>
       <c r="M47" t="s">
         <v>17</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="s">
         <v>3</v>
@@ -4507,33 +4507,33 @@
         <v>6</v>
       </c>
       <c r="R47">
-        <v>26763</v>
+        <v>24694</v>
       </c>
       <c r="S47" t="s">
         <v>7</v>
       </c>
       <c r="T47">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
-        <v>10784</v>
+        <v>10411</v>
       </c>
       <c r="V47">
         <f>U45</f>
-        <v>11786.7</v>
+        <v>12297.4</v>
       </c>
       <c r="W47">
         <f>T45</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1637.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -4551,7 +4551,7 @@
         <v>4</v>
       </c>
       <c r="H48">
-        <v>28754</v>
+        <v>26659</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -4563,7 +4563,7 @@
         <v>2</v>
       </c>
       <c r="L48">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="M48" t="s">
         <v>17</v>
@@ -4581,7 +4581,7 @@
         <v>6</v>
       </c>
       <c r="R48">
-        <v>41571</v>
+        <v>37474</v>
       </c>
       <c r="S48" t="s">
         <v>7</v>
@@ -4591,23 +4591,23 @@
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
-        <v>12817</v>
+        <v>10815</v>
       </c>
       <c r="V48">
         <f>U56</f>
-        <v>12703.7</v>
+        <v>11990.7</v>
       </c>
       <c r="W48">
         <f>T56</f>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1432.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -4625,7 +4625,7 @@
         <v>4</v>
       </c>
       <c r="H49">
-        <v>43564</v>
+        <v>39479</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
@@ -4637,7 +4637,7 @@
         <v>2</v>
       </c>
       <c r="L49">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="M49" t="s">
         <v>17</v>
@@ -4655,7 +4655,7 @@
         <v>6</v>
       </c>
       <c r="R49">
-        <v>61302</v>
+        <v>49947</v>
       </c>
       <c r="S49" t="s">
         <v>7</v>
@@ -4665,23 +4665,23 @@
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
-        <v>17738</v>
+        <v>10468</v>
       </c>
       <c r="V49">
         <f>U67</f>
-        <v>11540.7</v>
+        <v>11064.3</v>
       </c>
       <c r="W49">
         <f>T67</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1432.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -4699,7 +4699,7 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>63317</v>
+        <v>51947</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -4711,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="L50">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="M50" t="s">
         <v>17</v>
@@ -4729,7 +4729,7 @@
         <v>6</v>
       </c>
       <c r="R50">
-        <v>74651</v>
+        <v>65903</v>
       </c>
       <c r="S50" t="s">
         <v>7</v>
@@ -4739,29 +4739,29 @@
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
-        <v>11334</v>
+        <v>13956</v>
       </c>
       <c r="V50">
         <f>U78</f>
-        <v>13051.8</v>
+        <v>11704</v>
       </c>
       <c r="W50">
         <f>T78</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1228.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>3</v>
@@ -4773,25 +4773,25 @@
         <v>4</v>
       </c>
       <c r="H51">
-        <v>76652</v>
+        <v>65904</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
       </c>
       <c r="J51">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s">
         <v>2</v>
       </c>
       <c r="L51">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="M51" t="s">
         <v>17</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="s">
         <v>3</v>
@@ -4803,33 +4803,33 @@
         <v>6</v>
       </c>
       <c r="R51">
-        <v>88766</v>
+        <v>78842</v>
       </c>
       <c r="S51" t="s">
         <v>7</v>
       </c>
       <c r="T51">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
-        <v>12114</v>
+        <v>12938</v>
       </c>
       <c r="V51">
         <f>U89</f>
-        <v>11877.3</v>
+        <v>13048.5</v>
       </c>
       <c r="W51">
         <f>T89</f>
-        <v>1432.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1228.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="H52">
-        <v>90764</v>
+        <v>80836</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -4859,7 +4859,7 @@
         <v>2</v>
       </c>
       <c r="L52">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="M52" t="s">
         <v>17</v>
@@ -4877,7 +4877,7 @@
         <v>6</v>
       </c>
       <c r="R52">
-        <v>104182</v>
+        <v>93334</v>
       </c>
       <c r="S52" t="s">
         <v>7</v>
@@ -4887,23 +4887,23 @@
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
-        <v>13418</v>
+        <v>12498</v>
       </c>
       <c r="V52">
         <f>U100</f>
-        <v>11946.7</v>
+        <v>11291.7</v>
       </c>
       <c r="W52">
         <f>T100</f>
-        <v>1432.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1023.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53">
-        <v>171</v>
+        <v>343</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -4921,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="H53">
-        <v>106181</v>
+        <v>95312</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -4933,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>171</v>
+        <v>343</v>
       </c>
       <c r="M53" t="s">
         <v>17</v>
@@ -4951,7 +4951,7 @@
         <v>6</v>
       </c>
       <c r="R53">
-        <v>115893</v>
+        <v>104422</v>
       </c>
       <c r="S53" t="s">
         <v>7</v>
@@ -4961,18 +4961,18 @@
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
-        <v>9712</v>
+        <v>9110</v>
       </c>
       <c r="V53">
         <f>U111</f>
-        <v>12602.2</v>
+        <v>12904.4</v>
       </c>
       <c r="W53">
         <f>T111</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1023.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>4</v>
       </c>
       <c r="H54">
-        <v>117895</v>
+        <v>106421</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5025,7 +5025,7 @@
         <v>6</v>
       </c>
       <c r="R54">
-        <v>133485</v>
+        <v>120134</v>
       </c>
       <c r="S54" t="s">
         <v>7</v>
@@ -5035,21 +5035,21 @@
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
-        <v>15590</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13713</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>3</v>
@@ -5061,25 +5061,25 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>135486</v>
+        <v>120135</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
       </c>
       <c r="J55">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K55" t="s">
         <v>2</v>
       </c>
       <c r="L55">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M55" t="s">
         <v>17</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="s">
         <v>3</v>
@@ -5091,20 +5091,20 @@
         <v>6</v>
       </c>
       <c r="R55">
-        <v>146978</v>
+        <v>133810</v>
       </c>
       <c r="S55" t="s">
         <v>7</v>
       </c>
       <c r="T55">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
-        <v>11492</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13675</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -5132,25 +5132,25 @@
       <c r="R56" s="2"/>
       <c r="T56">
         <f>AVERAGE(T46:T55)</f>
-        <v>2047</v>
+        <v>1432.9</v>
       </c>
       <c r="U56" s="2">
         <f>AVERAGE(U46:U55)</f>
-        <v>12703.7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11990.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
       <c r="B57">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
         <v>3</v>
@@ -5162,25 +5162,25 @@
         <v>4</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1953</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K57" t="s">
         <v>2</v>
       </c>
       <c r="L57">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="M57" t="s">
         <v>17</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="s">
         <v>3</v>
@@ -5192,31 +5192,31 @@
         <v>6</v>
       </c>
       <c r="R57">
-        <v>9902</v>
+        <v>15523</v>
       </c>
       <c r="S57" t="s">
         <v>7</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
-        <v>9902</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13570</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58">
-        <v>475</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
@@ -5228,25 +5228,25 @@
         <v>4</v>
       </c>
       <c r="H58">
-        <v>11913</v>
+        <v>15524</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
       </c>
       <c r="J58">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K58" t="s">
         <v>2</v>
       </c>
       <c r="L58">
-        <v>475</v>
+        <v>49</v>
       </c>
       <c r="M58" t="s">
         <v>17</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="s">
         <v>3</v>
@@ -5258,25 +5258,25 @@
         <v>6</v>
       </c>
       <c r="R58">
-        <v>23493</v>
+        <v>25400</v>
       </c>
       <c r="S58" t="s">
         <v>7</v>
       </c>
       <c r="T58">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
-        <v>11580</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+        <v>9876</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -5294,7 +5294,7 @@
         <v>4</v>
       </c>
       <c r="H59">
-        <v>25459</v>
+        <v>27402</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
@@ -5306,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="M59" t="s">
         <v>17</v>
@@ -5324,7 +5324,7 @@
         <v>6</v>
       </c>
       <c r="R59">
-        <v>38253</v>
+        <v>37163</v>
       </c>
       <c r="S59" t="s">
         <v>7</v>
@@ -5334,15 +5334,15 @@
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
-        <v>12794</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+        <v>9761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -5360,7 +5360,7 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>40256</v>
+        <v>39165</v>
       </c>
       <c r="I60" t="s">
         <v>5</v>
@@ -5372,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="L60">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="M60" t="s">
         <v>17</v>
@@ -5390,7 +5390,7 @@
         <v>6</v>
       </c>
       <c r="R60">
-        <v>50703</v>
+        <v>49995</v>
       </c>
       <c r="S60" t="s">
         <v>7</v>
@@ -5400,21 +5400,21 @@
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
-        <v>10447</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+        <v>10830</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61">
-        <v>336</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
@@ -5426,25 +5426,25 @@
         <v>4</v>
       </c>
       <c r="H61">
-        <v>52701</v>
+        <v>49996</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
       </c>
       <c r="J61">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K61" t="s">
         <v>2</v>
       </c>
       <c r="L61">
-        <v>336</v>
+        <v>196</v>
       </c>
       <c r="M61" t="s">
         <v>17</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="s">
         <v>3</v>
@@ -5456,25 +5456,25 @@
         <v>6</v>
       </c>
       <c r="R61">
-        <v>62178</v>
+        <v>62256</v>
       </c>
       <c r="S61" t="s">
         <v>7</v>
       </c>
       <c r="T61">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
-        <v>9477</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -5492,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="H62">
-        <v>64183</v>
+        <v>64228</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5504,7 +5504,7 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="M62" t="s">
         <v>17</v>
@@ -5522,7 +5522,7 @@
         <v>6</v>
       </c>
       <c r="R62">
-        <v>74924</v>
+        <v>75459</v>
       </c>
       <c r="S62" t="s">
         <v>7</v>
@@ -5532,15 +5532,15 @@
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
-        <v>10741</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
       <c r="B63">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -5558,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="H63">
-        <v>76915</v>
+        <v>77462</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
@@ -5570,7 +5570,7 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="M63" t="s">
         <v>17</v>
@@ -5588,7 +5588,7 @@
         <v>6</v>
       </c>
       <c r="R63">
-        <v>89245</v>
+        <v>88934</v>
       </c>
       <c r="S63" t="s">
         <v>7</v>
@@ -5598,15 +5598,15 @@
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
-        <v>12330</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+        <v>11472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -5624,7 +5624,7 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <v>89246</v>
+        <v>88935</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
@@ -5636,7 +5636,7 @@
         <v>2</v>
       </c>
       <c r="L64">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="M64" t="s">
         <v>17</v>
@@ -5654,7 +5654,7 @@
         <v>6</v>
       </c>
       <c r="R64">
-        <v>103244</v>
+        <v>100283</v>
       </c>
       <c r="S64" t="s">
         <v>7</v>
@@ -5664,15 +5664,15 @@
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
-        <v>13998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
       <c r="B65">
-        <v>111</v>
+        <v>392</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -5690,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>105245</v>
+        <v>102281</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
@@ -5702,7 +5702,7 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>111</v>
+        <v>392</v>
       </c>
       <c r="M65" t="s">
         <v>17</v>
@@ -5720,7 +5720,7 @@
         <v>6</v>
       </c>
       <c r="R65">
-        <v>117638</v>
+        <v>112574</v>
       </c>
       <c r="S65" t="s">
         <v>7</v>
@@ -5730,15 +5730,15 @@
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
-        <v>12393</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
       <c r="B66">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -5756,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="H66">
-        <v>119637</v>
+        <v>114575</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
@@ -5768,7 +5768,7 @@
         <v>2</v>
       </c>
       <c r="L66">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="M66" t="s">
         <v>17</v>
@@ -5786,7 +5786,7 @@
         <v>6</v>
       </c>
       <c r="R66">
-        <v>131382</v>
+        <v>124577</v>
       </c>
       <c r="S66" t="s">
         <v>7</v>
@@ -5796,10 +5796,10 @@
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
-        <v>11745</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -5827,19 +5827,19 @@
       <c r="R67" s="2"/>
       <c r="T67">
         <f>AVERAGE(T57:T66)</f>
-        <v>1637.6</v>
+        <v>1432.9</v>
       </c>
       <c r="U67" s="2">
         <f>AVERAGE(U57:U66)</f>
-        <v>11540.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11064.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
       <c r="B68">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -5857,7 +5857,7 @@
         <v>4</v>
       </c>
       <c r="H68">
-        <v>1888</v>
+        <v>1943</v>
       </c>
       <c r="I68" t="s">
         <v>5</v>
@@ -5869,7 +5869,7 @@
         <v>2</v>
       </c>
       <c r="L68">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="M68" t="s">
         <v>17</v>
@@ -5887,7 +5887,7 @@
         <v>6</v>
       </c>
       <c r="R68">
-        <v>17400</v>
+        <v>13517</v>
       </c>
       <c r="S68" t="s">
         <v>7</v>
@@ -5897,15 +5897,15 @@
       </c>
       <c r="U68">
         <f t="shared" ref="U68:U110" si="1">R68-H68</f>
-        <v>15512</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11574</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -5923,7 +5923,7 @@
         <v>4</v>
       </c>
       <c r="H69">
-        <v>17401</v>
+        <v>13518</v>
       </c>
       <c r="I69" t="s">
         <v>5</v>
@@ -5935,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="L69">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="M69" t="s">
         <v>17</v>
@@ -5953,7 +5953,7 @@
         <v>6</v>
       </c>
       <c r="R69">
-        <v>27975</v>
+        <v>25988</v>
       </c>
       <c r="S69" t="s">
         <v>7</v>
@@ -5963,15 +5963,15 @@
       </c>
       <c r="U69">
         <f t="shared" si="1"/>
-        <v>10574</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70">
-        <v>426</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -5989,7 +5989,7 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>29973</v>
+        <v>27995</v>
       </c>
       <c r="I70" t="s">
         <v>5</v>
@@ -6001,7 +6001,7 @@
         <v>2</v>
       </c>
       <c r="L70">
-        <v>426</v>
+        <v>98</v>
       </c>
       <c r="M70" t="s">
         <v>17</v>
@@ -6019,7 +6019,7 @@
         <v>6</v>
       </c>
       <c r="R70">
-        <v>42554</v>
+        <v>37613</v>
       </c>
       <c r="S70" t="s">
         <v>7</v>
@@ -6029,21 +6029,21 @@
       </c>
       <c r="U70">
         <f t="shared" si="1"/>
-        <v>12581</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9618</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71">
-        <v>338</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
         <v>3</v>
@@ -6055,25 +6055,25 @@
         <v>4</v>
       </c>
       <c r="H71">
-        <v>44552</v>
+        <v>37614</v>
       </c>
       <c r="I71" t="s">
         <v>5</v>
       </c>
       <c r="J71">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K71" t="s">
         <v>2</v>
       </c>
       <c r="L71">
-        <v>338</v>
+        <v>147</v>
       </c>
       <c r="M71" t="s">
         <v>17</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="s">
         <v>3</v>
@@ -6085,25 +6085,25 @@
         <v>6</v>
       </c>
       <c r="R71">
-        <v>57654</v>
+        <v>50420</v>
       </c>
       <c r="S71" t="s">
         <v>7</v>
       </c>
       <c r="T71">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U71">
         <f t="shared" si="1"/>
-        <v>13102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12806</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72">
-        <v>397</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -6121,7 +6121,7 @@
         <v>4</v>
       </c>
       <c r="H72">
-        <v>59661</v>
+        <v>52429</v>
       </c>
       <c r="I72" t="s">
         <v>5</v>
@@ -6133,7 +6133,7 @@
         <v>2</v>
       </c>
       <c r="L72">
-        <v>397</v>
+        <v>196</v>
       </c>
       <c r="M72" t="s">
         <v>17</v>
@@ -6151,7 +6151,7 @@
         <v>6</v>
       </c>
       <c r="R72">
-        <v>72260</v>
+        <v>65649</v>
       </c>
       <c r="S72" t="s">
         <v>7</v>
@@ -6161,21 +6161,21 @@
       </c>
       <c r="U72">
         <f t="shared" si="1"/>
-        <v>12599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2</v>
       </c>
       <c r="B73">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
         <v>3</v>
@@ -6187,25 +6187,25 @@
         <v>4</v>
       </c>
       <c r="H73">
-        <v>74262</v>
+        <v>65650</v>
       </c>
       <c r="I73" t="s">
         <v>5</v>
       </c>
       <c r="J73">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K73" t="s">
         <v>2</v>
       </c>
       <c r="L73">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="M73" t="s">
         <v>17</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="s">
         <v>3</v>
@@ -6217,25 +6217,25 @@
         <v>6</v>
       </c>
       <c r="R73">
-        <v>87861</v>
+        <v>76253</v>
       </c>
       <c r="S73" t="s">
         <v>7</v>
       </c>
       <c r="T73">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U73">
         <f t="shared" si="1"/>
-        <v>13599</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10603</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2</v>
       </c>
       <c r="B74">
-        <v>373</v>
+        <v>294</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -6253,7 +6253,7 @@
         <v>4</v>
       </c>
       <c r="H74">
-        <v>89853</v>
+        <v>78250</v>
       </c>
       <c r="I74" t="s">
         <v>5</v>
@@ -6265,7 +6265,7 @@
         <v>2</v>
       </c>
       <c r="L74">
-        <v>373</v>
+        <v>294</v>
       </c>
       <c r="M74" t="s">
         <v>17</v>
@@ -6283,7 +6283,7 @@
         <v>6</v>
       </c>
       <c r="R74">
-        <v>100929</v>
+        <v>92115</v>
       </c>
       <c r="S74" t="s">
         <v>7</v>
@@ -6293,21 +6293,21 @@
       </c>
       <c r="U74">
         <f t="shared" si="1"/>
-        <v>11076</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13865</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
       <c r="B75">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
         <v>3</v>
@@ -6319,25 +6319,25 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>102927</v>
+        <v>92116</v>
       </c>
       <c r="I75" t="s">
         <v>5</v>
       </c>
       <c r="J75">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K75" t="s">
         <v>2</v>
       </c>
       <c r="L75">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="M75" t="s">
         <v>17</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="s">
         <v>3</v>
@@ -6349,25 +6349,25 @@
         <v>6</v>
       </c>
       <c r="R75">
-        <v>117800</v>
+        <v>103277</v>
       </c>
       <c r="S75" t="s">
         <v>7</v>
       </c>
       <c r="T75">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U75">
         <f t="shared" si="1"/>
-        <v>14873</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76">
-        <v>22</v>
+        <v>392</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -6385,7 +6385,7 @@
         <v>4</v>
       </c>
       <c r="H76">
-        <v>119797</v>
+        <v>105280</v>
       </c>
       <c r="I76" t="s">
         <v>5</v>
@@ -6397,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>392</v>
       </c>
       <c r="M76" t="s">
         <v>17</v>
@@ -6415,7 +6415,7 @@
         <v>6</v>
       </c>
       <c r="R76">
-        <v>135995</v>
+        <v>115809</v>
       </c>
       <c r="S76" t="s">
         <v>7</v>
@@ -6425,21 +6425,21 @@
       </c>
       <c r="U76">
         <f t="shared" si="1"/>
-        <v>16198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2</v>
       </c>
       <c r="B77">
-        <v>99</v>
+        <v>441</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="s">
         <v>3</v>
@@ -6451,25 +6451,25 @@
         <v>4</v>
       </c>
       <c r="H77">
-        <v>135996</v>
+        <v>117794</v>
       </c>
       <c r="I77" t="s">
         <v>5</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K77" t="s">
         <v>2</v>
       </c>
       <c r="L77">
-        <v>99</v>
+        <v>441</v>
       </c>
       <c r="M77" t="s">
         <v>17</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" t="s">
         <v>3</v>
@@ -6481,20 +6481,20 @@
         <v>6</v>
       </c>
       <c r="R77">
-        <v>146400</v>
+        <v>128988</v>
       </c>
       <c r="S77" t="s">
         <v>7</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U77">
         <f t="shared" si="1"/>
-        <v>10404</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -6522,19 +6522,19 @@
       <c r="R78" s="2"/>
       <c r="T78">
         <f>AVERAGE(T68:T77)</f>
-        <v>1637.6</v>
+        <v>1228.2</v>
       </c>
       <c r="U78" s="2">
         <f>AVERAGE(U68:U77)</f>
-        <v>13051.8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11704</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2</v>
       </c>
       <c r="B79">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -6552,7 +6552,7 @@
         <v>4</v>
       </c>
       <c r="H79">
-        <v>1896</v>
+        <v>1950</v>
       </c>
       <c r="I79" t="s">
         <v>5</v>
@@ -6564,7 +6564,7 @@
         <v>2</v>
       </c>
       <c r="L79">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="M79" t="s">
         <v>17</v>
@@ -6582,7 +6582,7 @@
         <v>6</v>
       </c>
       <c r="R79">
-        <v>14331</v>
+        <v>17239</v>
       </c>
       <c r="S79" t="s">
         <v>7</v>
@@ -6592,15 +6592,15 @@
       </c>
       <c r="U79">
         <f t="shared" si="1"/>
-        <v>12435</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+        <v>15289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
       <c r="B80">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
@@ -6618,7 +6618,7 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>14332</v>
+        <v>17240</v>
       </c>
       <c r="I80" t="s">
         <v>5</v>
@@ -6630,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="L80">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="M80" t="s">
         <v>17</v>
@@ -6648,7 +6648,7 @@
         <v>6</v>
       </c>
       <c r="R80">
-        <v>26201</v>
+        <v>30988</v>
       </c>
       <c r="S80" t="s">
         <v>7</v>
@@ -6658,21 +6658,21 @@
       </c>
       <c r="U80">
         <f t="shared" si="1"/>
-        <v>11869</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13748</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2</v>
       </c>
       <c r="B81">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
         <v>17</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
         <v>3</v>
@@ -6684,25 +6684,25 @@
         <v>4</v>
       </c>
       <c r="H81">
-        <v>26202</v>
+        <v>32991</v>
       </c>
       <c r="I81" t="s">
         <v>5</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K81" t="s">
         <v>2</v>
       </c>
       <c r="L81">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="M81" t="s">
         <v>17</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="s">
         <v>3</v>
@@ -6714,31 +6714,31 @@
         <v>6</v>
       </c>
       <c r="R81">
-        <v>38130</v>
+        <v>49384</v>
       </c>
       <c r="S81" t="s">
         <v>7</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U81">
         <f t="shared" si="1"/>
-        <v>11928</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+        <v>16393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82">
-        <v>431</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
         <v>3</v>
@@ -6750,25 +6750,25 @@
         <v>4</v>
       </c>
       <c r="H82">
-        <v>40124</v>
+        <v>49385</v>
       </c>
       <c r="I82" t="s">
         <v>5</v>
       </c>
       <c r="J82">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K82" t="s">
         <v>2</v>
       </c>
       <c r="L82">
-        <v>431</v>
+        <v>147</v>
       </c>
       <c r="M82" t="s">
         <v>17</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="s">
         <v>3</v>
@@ -6780,25 +6780,25 @@
         <v>6</v>
       </c>
       <c r="R82">
-        <v>50487</v>
+        <v>62866</v>
       </c>
       <c r="S82" t="s">
         <v>7</v>
       </c>
       <c r="T82">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U82">
         <f t="shared" si="1"/>
-        <v>10363</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83">
-        <v>495</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -6816,7 +6816,7 @@
         <v>4</v>
       </c>
       <c r="H83">
-        <v>52492</v>
+        <v>64868</v>
       </c>
       <c r="I83" t="s">
         <v>5</v>
@@ -6828,7 +6828,7 @@
         <v>2</v>
       </c>
       <c r="L83">
-        <v>495</v>
+        <v>196</v>
       </c>
       <c r="M83" t="s">
         <v>17</v>
@@ -6846,7 +6846,7 @@
         <v>6</v>
       </c>
       <c r="R83">
-        <v>66896</v>
+        <v>76737</v>
       </c>
       <c r="S83" t="s">
         <v>7</v>
@@ -6856,21 +6856,21 @@
       </c>
       <c r="U83">
         <f t="shared" si="1"/>
-        <v>14404</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>3</v>
@@ -6882,25 +6882,25 @@
         <v>4</v>
       </c>
       <c r="H84">
-        <v>68891</v>
+        <v>76738</v>
       </c>
       <c r="I84" t="s">
         <v>5</v>
       </c>
       <c r="J84">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
         <v>2</v>
       </c>
       <c r="L84">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M84" t="s">
         <v>17</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="s">
         <v>3</v>
@@ -6912,31 +6912,31 @@
         <v>6</v>
       </c>
       <c r="R84">
-        <v>77910</v>
+        <v>87566</v>
       </c>
       <c r="S84" t="s">
         <v>7</v>
       </c>
       <c r="T84">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U84">
         <f t="shared" si="1"/>
-        <v>9019</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10828</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>3</v>
@@ -6948,25 +6948,25 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>77911</v>
+        <v>89560</v>
       </c>
       <c r="I85" t="s">
         <v>5</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K85" t="s">
         <v>2</v>
       </c>
       <c r="L85">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="M85" t="s">
         <v>17</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="s">
         <v>3</v>
@@ -6978,31 +6978,31 @@
         <v>6</v>
       </c>
       <c r="R85">
-        <v>90581</v>
+        <v>101051</v>
       </c>
       <c r="S85" t="s">
         <v>7</v>
       </c>
       <c r="T85">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U85">
         <f t="shared" si="1"/>
-        <v>12670</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86">
-        <v>438</v>
+        <v>343</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
@@ -7014,25 +7014,25 @@
         <v>4</v>
       </c>
       <c r="H86">
-        <v>92562</v>
+        <v>101052</v>
       </c>
       <c r="I86" t="s">
         <v>5</v>
       </c>
       <c r="J86">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
         <v>2</v>
       </c>
       <c r="L86">
-        <v>438</v>
+        <v>343</v>
       </c>
       <c r="M86" t="s">
         <v>17</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="s">
         <v>3</v>
@@ -7044,25 +7044,25 @@
         <v>6</v>
       </c>
       <c r="R86">
-        <v>105811</v>
+        <v>112502</v>
       </c>
       <c r="S86" t="s">
         <v>7</v>
       </c>
       <c r="T86">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U86">
         <f t="shared" si="1"/>
-        <v>13249</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11450</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2</v>
       </c>
       <c r="B87">
-        <v>491</v>
+        <v>392</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -7080,7 +7080,7 @@
         <v>4</v>
       </c>
       <c r="H87">
-        <v>107814</v>
+        <v>114488</v>
       </c>
       <c r="I87" t="s">
         <v>5</v>
@@ -7092,7 +7092,7 @@
         <v>2</v>
       </c>
       <c r="L87">
-        <v>491</v>
+        <v>392</v>
       </c>
       <c r="M87" t="s">
         <v>17</v>
@@ -7110,7 +7110,7 @@
         <v>6</v>
       </c>
       <c r="R87">
-        <v>120444</v>
+        <v>128107</v>
       </c>
       <c r="S87" t="s">
         <v>7</v>
@@ -7120,15 +7120,15 @@
       </c>
       <c r="U87">
         <f t="shared" si="1"/>
-        <v>12630</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13619</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2</v>
       </c>
       <c r="B88">
-        <v>140</v>
+        <v>441</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -7146,7 +7146,7 @@
         <v>4</v>
       </c>
       <c r="H88">
-        <v>122445</v>
+        <v>130069</v>
       </c>
       <c r="I88" t="s">
         <v>5</v>
@@ -7158,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="L88">
-        <v>140</v>
+        <v>441</v>
       </c>
       <c r="M88" t="s">
         <v>17</v>
@@ -7176,7 +7176,7 @@
         <v>6</v>
       </c>
       <c r="R88">
-        <v>132651</v>
+        <v>142386</v>
       </c>
       <c r="S88" t="s">
         <v>7</v>
@@ -7186,10 +7186,10 @@
       </c>
       <c r="U88">
         <f t="shared" si="1"/>
-        <v>10206</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -7217,19 +7217,19 @@
       <c r="R89" s="2"/>
       <c r="T89">
         <f>AVERAGE(T79:T88)</f>
-        <v>1432.9</v>
+        <v>1228.2</v>
       </c>
       <c r="U89" s="2">
         <f>AVERAGE(U79:U88)</f>
-        <v>11877.3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13048.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -7247,7 +7247,7 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>1891</v>
+        <v>1929</v>
       </c>
       <c r="I90" t="s">
         <v>5</v>
@@ -7259,7 +7259,7 @@
         <v>2</v>
       </c>
       <c r="L90">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="M90" t="s">
         <v>17</v>
@@ -7277,7 +7277,7 @@
         <v>6</v>
       </c>
       <c r="R90">
-        <v>16028</v>
+        <v>11430</v>
       </c>
       <c r="S90" t="s">
         <v>7</v>
@@ -7287,21 +7287,21 @@
       </c>
       <c r="U90">
         <f t="shared" si="1"/>
-        <v>14137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91">
-        <v>457</v>
+        <v>49</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>3</v>
@@ -7313,25 +7313,25 @@
         <v>4</v>
       </c>
       <c r="H91">
-        <v>18014</v>
+        <v>11431</v>
       </c>
       <c r="I91" t="s">
         <v>5</v>
       </c>
       <c r="J91">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K91" t="s">
         <v>2</v>
       </c>
       <c r="L91">
-        <v>457</v>
+        <v>49</v>
       </c>
       <c r="M91" t="s">
         <v>17</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="s">
         <v>3</v>
@@ -7343,25 +7343,25 @@
         <v>6</v>
       </c>
       <c r="R91">
-        <v>29286</v>
+        <v>22414</v>
       </c>
       <c r="S91" t="s">
         <v>7</v>
       </c>
       <c r="T91">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U91">
         <f t="shared" si="1"/>
-        <v>11272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10983</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2</v>
       </c>
       <c r="B92">
-        <v>459</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -7379,7 +7379,7 @@
         <v>4</v>
       </c>
       <c r="H92">
-        <v>31286</v>
+        <v>24403</v>
       </c>
       <c r="I92" t="s">
         <v>5</v>
@@ -7391,7 +7391,7 @@
         <v>2</v>
       </c>
       <c r="L92">
-        <v>459</v>
+        <v>98</v>
       </c>
       <c r="M92" t="s">
         <v>17</v>
@@ -7409,7 +7409,7 @@
         <v>6</v>
       </c>
       <c r="R92">
-        <v>43969</v>
+        <v>36656</v>
       </c>
       <c r="S92" t="s">
         <v>7</v>
@@ -7419,15 +7419,15 @@
       </c>
       <c r="U92">
         <f t="shared" si="1"/>
-        <v>12683</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2</v>
       </c>
       <c r="B93">
-        <v>275</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
@@ -7445,7 +7445,7 @@
         <v>4</v>
       </c>
       <c r="H93">
-        <v>43970</v>
+        <v>36657</v>
       </c>
       <c r="I93" t="s">
         <v>5</v>
@@ -7457,7 +7457,7 @@
         <v>2</v>
       </c>
       <c r="L93">
-        <v>275</v>
+        <v>147</v>
       </c>
       <c r="M93" t="s">
         <v>17</v>
@@ -7475,7 +7475,7 @@
         <v>6</v>
       </c>
       <c r="R93">
-        <v>56265</v>
+        <v>47258</v>
       </c>
       <c r="S93" t="s">
         <v>7</v>
@@ -7485,15 +7485,15 @@
       </c>
       <c r="U93">
         <f t="shared" si="1"/>
-        <v>12295</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2</v>
       </c>
       <c r="B94">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -7511,7 +7511,7 @@
         <v>4</v>
       </c>
       <c r="H94">
-        <v>58266</v>
+        <v>49259</v>
       </c>
       <c r="I94" t="s">
         <v>5</v>
@@ -7523,7 +7523,7 @@
         <v>2</v>
       </c>
       <c r="L94">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="M94" t="s">
         <v>17</v>
@@ -7541,7 +7541,7 @@
         <v>6</v>
       </c>
       <c r="R94">
-        <v>71990</v>
+        <v>59694</v>
       </c>
       <c r="S94" t="s">
         <v>7</v>
@@ -7551,15 +7551,15 @@
       </c>
       <c r="U94">
         <f t="shared" si="1"/>
-        <v>13724</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95">
-        <v>445</v>
+        <v>245</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
@@ -7577,7 +7577,7 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>71991</v>
+        <v>59695</v>
       </c>
       <c r="I95" t="s">
         <v>5</v>
@@ -7589,7 +7589,7 @@
         <v>2</v>
       </c>
       <c r="L95">
-        <v>445</v>
+        <v>245</v>
       </c>
       <c r="M95" t="s">
         <v>17</v>
@@ -7607,7 +7607,7 @@
         <v>6</v>
       </c>
       <c r="R95">
-        <v>83063</v>
+        <v>73780</v>
       </c>
       <c r="S95" t="s">
         <v>7</v>
@@ -7617,15 +7617,15 @@
       </c>
       <c r="U95">
         <f t="shared" si="1"/>
-        <v>11072</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+        <v>14085</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2</v>
       </c>
       <c r="B96">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -7643,7 +7643,7 @@
         <v>4</v>
       </c>
       <c r="H96">
-        <v>85054</v>
+        <v>75785</v>
       </c>
       <c r="I96" t="s">
         <v>5</v>
@@ -7655,7 +7655,7 @@
         <v>2</v>
       </c>
       <c r="L96">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="M96" t="s">
         <v>17</v>
@@ -7673,7 +7673,7 @@
         <v>6</v>
       </c>
       <c r="R96">
-        <v>96027</v>
+        <v>88310</v>
       </c>
       <c r="S96" t="s">
         <v>7</v>
@@ -7683,15 +7683,15 @@
       </c>
       <c r="U96">
         <f t="shared" si="1"/>
-        <v>10973</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12525</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
@@ -7709,7 +7709,7 @@
         <v>4</v>
       </c>
       <c r="H97">
-        <v>96028</v>
+        <v>88311</v>
       </c>
       <c r="I97" t="s">
         <v>5</v>
@@ -7721,7 +7721,7 @@
         <v>2</v>
       </c>
       <c r="L97">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="M97" t="s">
         <v>17</v>
@@ -7739,7 +7739,7 @@
         <v>6</v>
       </c>
       <c r="R97">
-        <v>106810</v>
+        <v>98939</v>
       </c>
       <c r="S97" t="s">
         <v>7</v>
@@ -7749,15 +7749,15 @@
       </c>
       <c r="U97">
         <f t="shared" si="1"/>
-        <v>10782</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10628</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>2</v>
       </c>
       <c r="B98">
-        <v>240</v>
+        <v>392</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
@@ -7775,7 +7775,7 @@
         <v>4</v>
       </c>
       <c r="H98">
-        <v>108819</v>
+        <v>100931</v>
       </c>
       <c r="I98" t="s">
         <v>5</v>
@@ -7787,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="L98">
-        <v>240</v>
+        <v>392</v>
       </c>
       <c r="M98" t="s">
         <v>17</v>
@@ -7805,7 +7805,7 @@
         <v>6</v>
       </c>
       <c r="R98">
-        <v>119673</v>
+        <v>112592</v>
       </c>
       <c r="S98" t="s">
         <v>7</v>
@@ -7815,21 +7815,21 @@
       </c>
       <c r="U98">
         <f t="shared" si="1"/>
-        <v>10854</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11661</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99">
-        <v>32</v>
+        <v>441</v>
       </c>
       <c r="C99" t="s">
         <v>17</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
         <v>3</v>
@@ -7841,25 +7841,25 @@
         <v>4</v>
       </c>
       <c r="H99">
-        <v>121671</v>
+        <v>112593</v>
       </c>
       <c r="I99" t="s">
         <v>5</v>
       </c>
       <c r="J99">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K99" t="s">
         <v>2</v>
       </c>
       <c r="L99">
-        <v>32</v>
+        <v>441</v>
       </c>
       <c r="M99" t="s">
         <v>17</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99" t="s">
         <v>3</v>
@@ -7871,20 +7871,20 @@
         <v>6</v>
       </c>
       <c r="R99">
-        <v>133346</v>
+        <v>122838</v>
       </c>
       <c r="S99" t="s">
         <v>7</v>
       </c>
       <c r="T99">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U99">
         <f t="shared" si="1"/>
-        <v>11675</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -7912,19 +7912,19 @@
       <c r="R100" s="2"/>
       <c r="T100">
         <f>AVERAGE(T90:T99)</f>
-        <v>1432.9</v>
+        <v>1023.5</v>
       </c>
       <c r="U100" s="2">
         <f>AVERAGE(U90:U99)</f>
-        <v>11946.7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11291.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>2</v>
       </c>
       <c r="B101">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
@@ -7942,7 +7942,7 @@
         <v>4</v>
       </c>
       <c r="H101">
-        <v>1858</v>
+        <v>1897</v>
       </c>
       <c r="I101" t="s">
         <v>5</v>
@@ -7954,7 +7954,7 @@
         <v>2</v>
       </c>
       <c r="L101">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="M101" t="s">
         <v>17</v>
@@ -7972,7 +7972,7 @@
         <v>6</v>
       </c>
       <c r="R101">
-        <v>12383</v>
+        <v>18511</v>
       </c>
       <c r="S101" t="s">
         <v>7</v>
@@ -7982,21 +7982,21 @@
       </c>
       <c r="U101">
         <f t="shared" si="1"/>
-        <v>10525</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+        <v>16614</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>2</v>
       </c>
       <c r="B102">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="s">
         <v>3</v>
@@ -8008,25 +8008,25 @@
         <v>4</v>
       </c>
       <c r="H102">
-        <v>14349</v>
+        <v>18512</v>
       </c>
       <c r="I102" t="s">
         <v>5</v>
       </c>
       <c r="J102">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K102" t="s">
         <v>2</v>
       </c>
       <c r="L102">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M102" t="s">
         <v>17</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102" t="s">
         <v>3</v>
@@ -8038,25 +8038,25 @@
         <v>6</v>
       </c>
       <c r="R102">
-        <v>26763</v>
+        <v>29994</v>
       </c>
       <c r="S102" t="s">
         <v>7</v>
       </c>
       <c r="T102">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U102">
         <f t="shared" si="1"/>
-        <v>12414</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11482</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>2</v>
       </c>
       <c r="B103">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
@@ -8074,7 +8074,7 @@
         <v>4</v>
       </c>
       <c r="H103">
-        <v>28761</v>
+        <v>31979</v>
       </c>
       <c r="I103" t="s">
         <v>5</v>
@@ -8086,7 +8086,7 @@
         <v>2</v>
       </c>
       <c r="L103">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="M103" t="s">
         <v>17</v>
@@ -8104,7 +8104,7 @@
         <v>6</v>
       </c>
       <c r="R103">
-        <v>42955</v>
+        <v>45454</v>
       </c>
       <c r="S103" t="s">
         <v>7</v>
@@ -8114,21 +8114,21 @@
       </c>
       <c r="U103">
         <f t="shared" si="1"/>
-        <v>14194</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2</v>
       </c>
       <c r="B104">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C104" t="s">
         <v>17</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="s">
         <v>3</v>
@@ -8140,25 +8140,25 @@
         <v>4</v>
       </c>
       <c r="H104">
-        <v>44961</v>
+        <v>45455</v>
       </c>
       <c r="I104" t="s">
         <v>5</v>
       </c>
       <c r="J104">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K104" t="s">
         <v>2</v>
       </c>
       <c r="L104">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M104" t="s">
         <v>17</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104" t="s">
         <v>3</v>
@@ -8170,31 +8170,31 @@
         <v>6</v>
       </c>
       <c r="R104">
-        <v>58799</v>
+        <v>57927</v>
       </c>
       <c r="S104" t="s">
         <v>7</v>
       </c>
       <c r="T104">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U104">
         <f t="shared" si="1"/>
-        <v>13838</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12472</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2</v>
       </c>
       <c r="B105">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
         <v>17</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="s">
         <v>3</v>
@@ -8206,25 +8206,25 @@
         <v>4</v>
       </c>
       <c r="H105">
-        <v>58800</v>
+        <v>59927</v>
       </c>
       <c r="I105" t="s">
         <v>5</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K105" t="s">
         <v>2</v>
       </c>
       <c r="L105">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="M105" t="s">
         <v>17</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" t="s">
         <v>3</v>
@@ -8236,31 +8236,31 @@
         <v>6</v>
       </c>
       <c r="R105">
-        <v>69029</v>
+        <v>71838</v>
       </c>
       <c r="S105" t="s">
         <v>7</v>
       </c>
       <c r="T105">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U105">
         <f t="shared" si="1"/>
-        <v>10229</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11911</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2</v>
       </c>
       <c r="B106">
-        <v>489</v>
+        <v>245</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
         <v>3</v>
@@ -8272,25 +8272,25 @@
         <v>4</v>
       </c>
       <c r="H106">
-        <v>71031</v>
+        <v>71839</v>
       </c>
       <c r="I106" t="s">
         <v>5</v>
       </c>
       <c r="J106">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K106" t="s">
         <v>2</v>
       </c>
       <c r="L106">
-        <v>489</v>
+        <v>245</v>
       </c>
       <c r="M106" t="s">
         <v>17</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="s">
         <v>3</v>
@@ -8302,25 +8302,25 @@
         <v>6</v>
       </c>
       <c r="R106">
-        <v>82785</v>
+        <v>83530</v>
       </c>
       <c r="S106" t="s">
         <v>7</v>
       </c>
       <c r="T106">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U106">
         <f t="shared" si="1"/>
-        <v>11754</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11691</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>2</v>
       </c>
       <c r="B107">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
@@ -8338,7 +8338,7 @@
         <v>4</v>
       </c>
       <c r="H107">
-        <v>84761</v>
+        <v>85541</v>
       </c>
       <c r="I107" t="s">
         <v>5</v>
@@ -8350,7 +8350,7 @@
         <v>2</v>
       </c>
       <c r="L107">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="M107" t="s">
         <v>17</v>
@@ -8368,7 +8368,7 @@
         <v>6</v>
       </c>
       <c r="R107">
-        <v>98412</v>
+        <v>98530</v>
       </c>
       <c r="S107" t="s">
         <v>7</v>
@@ -8378,15 +8378,15 @@
       </c>
       <c r="U107">
         <f t="shared" si="1"/>
-        <v>13651</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12989</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2</v>
       </c>
       <c r="B108">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
@@ -8404,7 +8404,7 @@
         <v>4</v>
       </c>
       <c r="H108">
-        <v>98413</v>
+        <v>98531</v>
       </c>
       <c r="I108" t="s">
         <v>5</v>
@@ -8416,7 +8416,7 @@
         <v>2</v>
       </c>
       <c r="L108">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="M108" t="s">
         <v>17</v>
@@ -8434,7 +8434,7 @@
         <v>6</v>
       </c>
       <c r="R108">
-        <v>110902</v>
+        <v>109264</v>
       </c>
       <c r="S108" t="s">
         <v>7</v>
@@ -8444,15 +8444,15 @@
       </c>
       <c r="U108">
         <f t="shared" si="1"/>
-        <v>12489</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10733</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2</v>
       </c>
       <c r="B109">
-        <v>64</v>
+        <v>392</v>
       </c>
       <c r="C109" t="s">
         <v>17</v>
@@ -8470,7 +8470,7 @@
         <v>4</v>
       </c>
       <c r="H109">
-        <v>112912</v>
+        <v>111270</v>
       </c>
       <c r="I109" t="s">
         <v>5</v>
@@ -8482,7 +8482,7 @@
         <v>2</v>
       </c>
       <c r="L109">
-        <v>64</v>
+        <v>392</v>
       </c>
       <c r="M109" t="s">
         <v>17</v>
@@ -8500,7 +8500,7 @@
         <v>6</v>
       </c>
       <c r="R109">
-        <v>129741</v>
+        <v>125766</v>
       </c>
       <c r="S109" t="s">
         <v>7</v>
@@ -8510,21 +8510,21 @@
       </c>
       <c r="U109">
         <f t="shared" si="1"/>
-        <v>16829</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+        <v>14496</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110">
-        <v>372</v>
+        <v>441</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>3</v>
@@ -8536,25 +8536,25 @@
         <v>4</v>
       </c>
       <c r="H110">
-        <v>131743</v>
+        <v>125767</v>
       </c>
       <c r="I110" t="s">
         <v>5</v>
       </c>
       <c r="J110">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K110" t="s">
         <v>2</v>
       </c>
       <c r="L110">
-        <v>372</v>
+        <v>441</v>
       </c>
       <c r="M110" t="s">
         <v>17</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110" t="s">
         <v>3</v>
@@ -8566,28 +8566,28 @@
         <v>6</v>
       </c>
       <c r="R110">
-        <v>141842</v>
+        <v>138948</v>
       </c>
       <c r="S110" t="s">
         <v>7</v>
       </c>
       <c r="T110">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U110">
         <f t="shared" si="1"/>
-        <v>10099</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R111" s="2"/>
       <c r="T111">
         <f>AVERAGE(T101:T110)</f>
-        <v>1637.6</v>
+        <v>1023.5</v>
       </c>
       <c r="U111" s="2">
         <f>AVERAGE(U101:U110)</f>
-        <v>12602.2</v>
+        <v>12904.4</v>
       </c>
     </row>
   </sheetData>
@@ -8600,20 +8600,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B6230B-E967-4A50-80F0-2097EBDAFE8F}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8636,322 +8636,322 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>512</v>
       </c>
       <c r="B2">
-        <v>11324.9</v>
+        <v>11395</v>
       </c>
       <c r="C2" s="1">
         <f>B2*50/1000000</f>
-        <v>0.566245</v>
+        <v>0.56974999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="E2">
         <f>D2/C2</f>
-        <v>3615.0429584367189</v>
+        <v>3233.5234752084248</v>
       </c>
       <c r="G2">
         <f>ROUND(C2,6)</f>
-        <v>0.566245</v>
+        <v>0.56974999999999998</v>
       </c>
       <c r="H2">
         <f>FLOOR(E2,1)</f>
-        <v>3615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1024</v>
       </c>
       <c r="B3">
-        <v>10862.9</v>
+        <v>12335.2</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>0.54314499999999999</v>
+        <v>0.61675999999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="1">D3/C3</f>
-        <v>3768.7910226550921</v>
+        <v>2987.0614177313705</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="2">ROUND(C3,6)</f>
-        <v>0.54314499999999999</v>
+        <v>0.61675999999999997</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="3">FLOOR(E3,1)</f>
-        <v>3768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1536</v>
       </c>
       <c r="B4">
-        <v>10608</v>
+        <v>12362.1</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.53039999999999998</v>
+        <v>0.61810500000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>2047</v>
+        <v>1637.6</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>3859.3514328808446</v>
+        <v>2649.3880489560834</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.53039999999999998</v>
+        <v>0.61810500000000002</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>3859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2048</v>
       </c>
       <c r="B5">
-        <v>11786.7</v>
+        <v>12297.4</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.58933500000000005</v>
+        <v>0.61487000000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>1842.3</v>
+        <v>1637.6</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>3126.0658199496038</v>
+        <v>2663.3272073771691</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.58933500000000005</v>
+        <v>0.61487000000000003</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2560</v>
       </c>
       <c r="B6">
-        <v>12703.7</v>
+        <v>11990.7</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.635185</v>
+        <v>0.59953500000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>2047</v>
+        <v>1432.9</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>3222.6831553012116</v>
+        <v>2390.018931338454</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0.635185</v>
+        <v>0.59953500000000004</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3072</v>
       </c>
       <c r="B7">
-        <v>11540.7</v>
+        <v>11064.3</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.57703499999999996</v>
+        <v>0.55321500000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>1637.6</v>
+        <v>1432.9</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>2837.9561031826493</v>
+        <v>2590.1322270726573</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.57703499999999996</v>
+        <v>0.55321500000000001</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>2837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3584</v>
       </c>
       <c r="B8">
-        <v>13051.8</v>
+        <v>11704</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.65259</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>1637.6</v>
+        <v>1228.2</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>2509.3856786037172</v>
+        <v>2098.76965140123</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>0.65259</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
       <c r="B9">
-        <v>11877.3</v>
+        <v>13048.5</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.59386499999999998</v>
+        <v>0.65242500000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>1432.9</v>
+        <v>1228.2</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>2412.8379345474141</v>
+        <v>1882.5152316358201</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>0.59386499999999998</v>
+        <v>0.65242500000000003</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4608</v>
       </c>
       <c r="B10">
-        <v>11946.7</v>
+        <v>11291.7</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.59733499999999995</v>
+        <v>0.564585</v>
       </c>
       <c r="D10" s="1">
-        <v>1432.9</v>
+        <v>1023.5</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>2398.8214318598443</v>
+        <v>1812.835976867965</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0.59733499999999995</v>
+        <v>0.564585</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
       <c r="B11">
-        <v>12602.2</v>
+        <v>12904.4</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.63010999999999995</v>
+        <v>0.64522000000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>1637.6</v>
+        <v>1023.5</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>2598.9113012013777</v>
+        <v>1586.2806484609901</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0.63010999999999995</v>
+        <v>0.64522000000000002</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>2598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>0.26252500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>0.25872000000000001</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>0.25234499999999999</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>0.25135999999999997</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>0.24887999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>0.24548500000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>0.24379999999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>0.24027499999999999</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>0.242585</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>0.240735</v>
       </c>
@@ -8970,12 +8970,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>512</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1024</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>6868</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1536</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>7041</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2048</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>7075</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2560</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>7113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3072</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>7122</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3584</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>7106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>7164</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4608</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>7174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
